--- a/document/アプリ概要設計.xlsx
+++ b/document/アプリ概要設計.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FBA11F-7A76-B444-85C5-90D8D443FC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ概要" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>アプリ概要</t>
     <rPh sb="3" eb="5">
@@ -178,25 +179,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>谷　風汰</t>
-    <rPh sb="0" eb="1">
-      <t>タニ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +307,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -342,15 +339,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,146 +619,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="8">
         <v>44131</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="25.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1"/>
+    <row r="4" spans="1:6" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="37.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="73.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="73.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="54" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="120.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
